--- a/Data/环宇语义分割标注类别183类2021116.xlsx
+++ b/Data/环宇语义分割标注类别183类2021116.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="383">
   <si>
     <t>SuperCategory1</t>
   </si>
@@ -503,6 +503,12 @@
   </si>
   <si>
     <t>道路（路延边可行驶区域）</t>
+  </si>
+  <si>
+    <t>ground.road_curb_unreach</t>
+  </si>
+  <si>
+    <t>道路（路延边可行驶区域,当前车辆不可立即驶入路面）</t>
   </si>
   <si>
     <t>ground.sidewalk</t>
@@ -1166,8 +1172,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1201,17 +1207,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1224,14 +1222,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1253,29 +1251,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -1286,15 +1261,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1309,9 +1283,40 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1330,8 +1335,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1346,19 +1352,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1376,24 +1382,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1406,7 +1394,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1418,43 +1502,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1466,67 +1520,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1605,31 +1611,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1645,6 +1627,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1679,6 +1670,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1694,145 +1700,145 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -2218,10 +2224,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F184"/>
+  <dimension ref="A1:F185"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
+      <selection activeCell="G188" sqref="G188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="58.875" defaultRowHeight="17.25" outlineLevelCol="5"/>
@@ -3482,21 +3488,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" ht="33" spans="1:6">
       <c r="A77" s="3"/>
       <c r="B77" s="5"/>
       <c r="C77" s="3">
         <v>76</v>
       </c>
-      <c r="D77" s="3" t="s">
+      <c r="D77" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="E77" s="3" t="s">
+      <c r="E77" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="F77" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="F77" s="3"/>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="3"/>
@@ -3572,35 +3576,35 @@
         <v>173</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>24</v>
+        <v>174</v>
       </c>
       <c r="F82" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="83" spans="1:6">
-      <c r="A83" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="B83" s="7" t="s">
-        <v>175</v>
-      </c>
+      <c r="A83" s="3"/>
+      <c r="B83" s="5"/>
       <c r="C83" s="3">
         <v>82</v>
       </c>
       <c r="D83" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="E83" s="3" t="s">
+      <c r="B84" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="F83" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
-      <c r="A84" s="3"/>
-      <c r="B84" s="8"/>
       <c r="C84" s="3">
         <v>83</v>
       </c>
@@ -3943,7 +3947,7 @@
       <c r="D105" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="E105" s="1" t="s">
+      <c r="E105" s="3" t="s">
         <v>221</v>
       </c>
       <c r="F105" s="3" t="s">
@@ -3959,7 +3963,7 @@
       <c r="D106" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="E106" s="3" t="s">
+      <c r="E106" s="1" t="s">
         <v>223</v>
       </c>
       <c r="F106" s="3" t="s">
@@ -3968,7 +3972,7 @@
     </row>
     <row r="107" spans="1:6">
       <c r="A107" s="3"/>
-      <c r="B107" s="9"/>
+      <c r="B107" s="8"/>
       <c r="C107" s="3">
         <v>106</v>
       </c>
@@ -3976,7 +3980,7 @@
         <v>224</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>24</v>
+        <v>225</v>
       </c>
       <c r="F107" s="3" t="s">
         <v>10</v>
@@ -3984,9 +3988,7 @@
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="3"/>
-      <c r="B108" s="3" t="s">
-        <v>225</v>
-      </c>
+      <c r="B108" s="9"/>
       <c r="C108" s="3">
         <v>107</v>
       </c>
@@ -3994,7 +3996,7 @@
         <v>226</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>227</v>
+        <v>24</v>
       </c>
       <c r="F108" s="3" t="s">
         <v>10</v>
@@ -4002,7 +4004,9 @@
     </row>
     <row r="109" spans="1:6">
       <c r="A109" s="3"/>
-      <c r="B109" s="3"/>
+      <c r="B109" s="3" t="s">
+        <v>227</v>
+      </c>
       <c r="C109" s="3">
         <v>108</v>
       </c>
@@ -4154,7 +4158,7 @@
         <v>246</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>24</v>
+        <v>247</v>
       </c>
       <c r="F118" s="3" t="s">
         <v>10</v>
@@ -4162,9 +4166,7 @@
     </row>
     <row r="119" spans="1:6">
       <c r="A119" s="3"/>
-      <c r="B119" s="3" t="s">
-        <v>247</v>
-      </c>
+      <c r="B119" s="3"/>
       <c r="C119" s="3">
         <v>118</v>
       </c>
@@ -4172,7 +4174,7 @@
         <v>248</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>249</v>
+        <v>24</v>
       </c>
       <c r="F119" s="3" t="s">
         <v>10</v>
@@ -4180,7 +4182,9 @@
     </row>
     <row r="120" spans="1:6">
       <c r="A120" s="3"/>
-      <c r="B120" s="3"/>
+      <c r="B120" s="3" t="s">
+        <v>249</v>
+      </c>
       <c r="C120" s="3">
         <v>119</v>
       </c>
@@ -4620,17 +4624,15 @@
         <v>304</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>24</v>
+        <v>305</v>
       </c>
       <c r="F147" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="148" spans="1:6">
-      <c r="A148" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="B148" s="5"/>
+      <c r="A148" s="3"/>
+      <c r="B148" s="3"/>
       <c r="C148" s="3">
         <v>147</v>
       </c>
@@ -4638,14 +4640,16 @@
         <v>306</v>
       </c>
       <c r="E148" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F148" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
+      <c r="A149" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="F148" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6">
-      <c r="A149" s="3"/>
       <c r="B149" s="5"/>
       <c r="C149" s="3">
         <v>148</v>
@@ -4718,16 +4722,14 @@
         <v>316</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>24</v>
+        <v>317</v>
       </c>
       <c r="F153" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="154" spans="1:6">
-      <c r="A154" s="3" t="s">
-        <v>317</v>
-      </c>
+      <c r="A154" s="3"/>
       <c r="B154" s="5"/>
       <c r="C154" s="3">
         <v>153</v>
@@ -4736,14 +4738,16 @@
         <v>318</v>
       </c>
       <c r="E154" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F154" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
+      <c r="A155" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="F154" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6">
-      <c r="A155" s="3"/>
       <c r="B155" s="5"/>
       <c r="C155" s="3">
         <v>154</v>
@@ -4912,16 +4916,14 @@
         <v>340</v>
       </c>
       <c r="E165" s="3" t="s">
-        <v>24</v>
+        <v>341</v>
       </c>
       <c r="F165" s="4" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="166" spans="1:6">
-      <c r="A166" s="3" t="s">
-        <v>341</v>
-      </c>
+      <c r="A166" s="3"/>
       <c r="B166" s="5"/>
       <c r="C166" s="3">
         <v>165</v>
@@ -4930,26 +4932,28 @@
         <v>342</v>
       </c>
       <c r="E166" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F166" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6">
+      <c r="A167" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="F166" s="4" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6">
-      <c r="A167" s="3"/>
       <c r="B167" s="5"/>
       <c r="C167" s="3">
         <v>166</v>
       </c>
       <c r="D167" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="E167" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="E167" s="3" t="s">
+      <c r="F167" s="4" t="s">
         <v>346</v>
-      </c>
-      <c r="F167" s="4" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4965,7 +4969,7 @@
         <v>348</v>
       </c>
       <c r="F168" s="4" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4981,7 +4985,7 @@
         <v>350</v>
       </c>
       <c r="F169" s="4" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4997,7 +5001,7 @@
         <v>352</v>
       </c>
       <c r="F170" s="4" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -5010,16 +5014,14 @@
         <v>353</v>
       </c>
       <c r="E171" s="3" t="s">
-        <v>24</v>
+        <v>354</v>
       </c>
       <c r="F171" s="4" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="172" spans="1:6">
-      <c r="A172" s="3" t="s">
-        <v>354</v>
-      </c>
+      <c r="A172" s="3"/>
       <c r="B172" s="5"/>
       <c r="C172" s="3">
         <v>171</v>
@@ -5028,14 +5030,16 @@
         <v>355</v>
       </c>
       <c r="E172" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F172" s="4" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6">
+      <c r="A173" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="F172" s="4" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6">
-      <c r="A173" s="3"/>
       <c r="B173" s="5"/>
       <c r="C173" s="3">
         <v>172</v>
@@ -5047,7 +5051,7 @@
         <v>358</v>
       </c>
       <c r="F173" s="4" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -5060,10 +5064,10 @@
         <v>359</v>
       </c>
       <c r="E174" s="3" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="F174" s="4" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -5073,13 +5077,13 @@
         <v>174</v>
       </c>
       <c r="D175" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="E175" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="E175" s="3" t="s">
-        <v>361</v>
-      </c>
       <c r="F175" s="4" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -5095,7 +5099,7 @@
         <v>363</v>
       </c>
       <c r="F176" s="4" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -5111,7 +5115,7 @@
         <v>365</v>
       </c>
       <c r="F177" s="4" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -5127,7 +5131,7 @@
         <v>367</v>
       </c>
       <c r="F178" s="4" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -5143,7 +5147,7 @@
         <v>369</v>
       </c>
       <c r="F179" s="4" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -5159,7 +5163,7 @@
         <v>371</v>
       </c>
       <c r="F180" s="4" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -5175,7 +5179,7 @@
         <v>373</v>
       </c>
       <c r="F181" s="4" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -5188,16 +5192,14 @@
         <v>374</v>
       </c>
       <c r="E182" s="3" t="s">
-        <v>24</v>
+        <v>375</v>
       </c>
       <c r="F182" s="4" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="183" spans="1:6">
-      <c r="A183" s="3" t="s">
-        <v>375</v>
-      </c>
+      <c r="A183" s="3"/>
       <c r="B183" s="5"/>
       <c r="C183" s="3">
         <v>182</v>
@@ -5206,27 +5208,45 @@
         <v>376</v>
       </c>
       <c r="E183" s="3" t="s">
-        <v>377</v>
+        <v>24</v>
       </c>
       <c r="F183" s="4" t="s">
-        <v>10</v>
+        <v>346</v>
       </c>
     </row>
     <row r="184" spans="1:6">
       <c r="A184" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B184" s="5"/>
       <c r="C184" s="3">
         <v>183</v>
       </c>
       <c r="D184" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="E184" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="E184" s="3" t="s">
+      <c r="F184" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6">
+      <c r="A185" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="F184" s="4" t="s">
+      <c r="B185" s="5"/>
+      <c r="C185" s="3">
+        <v>184</v>
+      </c>
+      <c r="D185" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="E185" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="F185" s="4" t="s">
         <v>10</v>
       </c>
     </row>
@@ -5235,12 +5255,12 @@
     <mergeCell ref="A2:A17"/>
     <mergeCell ref="A18:A45"/>
     <mergeCell ref="A46:A73"/>
-    <mergeCell ref="A74:A82"/>
-    <mergeCell ref="A83:A147"/>
-    <mergeCell ref="A148:A153"/>
-    <mergeCell ref="A154:A165"/>
-    <mergeCell ref="A166:A171"/>
-    <mergeCell ref="A172:A182"/>
+    <mergeCell ref="A74:A83"/>
+    <mergeCell ref="A84:A148"/>
+    <mergeCell ref="A149:A154"/>
+    <mergeCell ref="A155:A166"/>
+    <mergeCell ref="A167:A172"/>
+    <mergeCell ref="A173:A183"/>
     <mergeCell ref="B2:B9"/>
     <mergeCell ref="B10:B17"/>
     <mergeCell ref="B18:B24"/>
@@ -5250,14 +5270,14 @@
     <mergeCell ref="B46:B61"/>
     <mergeCell ref="B62:B65"/>
     <mergeCell ref="B66:B73"/>
-    <mergeCell ref="B74:B82"/>
-    <mergeCell ref="B83:B107"/>
-    <mergeCell ref="B108:B118"/>
-    <mergeCell ref="B119:B147"/>
-    <mergeCell ref="B148:B153"/>
-    <mergeCell ref="B154:B165"/>
-    <mergeCell ref="B166:B171"/>
-    <mergeCell ref="B172:B182"/>
+    <mergeCell ref="B74:B83"/>
+    <mergeCell ref="B84:B108"/>
+    <mergeCell ref="B109:B119"/>
+    <mergeCell ref="B120:B148"/>
+    <mergeCell ref="B149:B154"/>
+    <mergeCell ref="B155:B166"/>
+    <mergeCell ref="B167:B172"/>
+    <mergeCell ref="B173:B183"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
